--- a/data/negative_signals/Indirectly connected (A-X-B) - Irbesartan - Aplastic anaemia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Irbesartan - Aplastic anaemia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="790">
   <si>
     <t>pathWeight</t>
   </si>
@@ -164,15 +164,99 @@
     <t>tier12TripleInformation/9/predicateName</t>
   </si>
   <si>
-    <t>691962</t>
-  </si>
-  <si>
-    <t>sr 47436</t>
+    <t>3786804</t>
+  </si>
+  <si>
+    <t>irbesartan</t>
   </si>
   <si>
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>432075</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>125118</t>
+  </si>
+  <si>
+    <t>aplastic anemia</t>
+  </si>
+  <si>
+    <t>13127320</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>107660643</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>94092976</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>137219340</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>62574634</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>51809366</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>137215814</t>
+  </si>
+  <si>
+    <t>85863870</t>
+  </si>
+  <si>
+    <t>51809481</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>71312064</t>
+  </si>
+  <si>
+    <t>40053237</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>83842600</t>
+  </si>
+  <si>
+    <t>137219329</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>87540599</t>
+  </si>
+  <si>
     <t>2786091</t>
   </si>
   <si>
@@ -182,175 +266,223 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>125118</t>
-  </si>
-  <si>
-    <t>aplastic anemia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>84333342</t>
+    <t>19015066</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>94560516</t>
+    <t>28190132</t>
+  </si>
+  <si>
+    <t>gene product is expressed in</t>
+  </si>
+  <si>
+    <t>28190133</t>
   </si>
   <si>
     <t>gene product is biomarker type</t>
   </si>
   <si>
-    <t>94560514</t>
-  </si>
-  <si>
-    <t>gene product is expressed in</t>
-  </si>
-  <si>
-    <t>90679795</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>94560518</t>
+    <t>28190135</t>
   </si>
   <si>
     <t>gene product variant causes</t>
   </si>
   <si>
+    <t>24326610</t>
+  </si>
+  <si>
     <t>607167</t>
   </si>
   <si>
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>79434035</t>
+    <t>13128208</t>
+  </si>
+  <si>
+    <t>13128221</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>79434031</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>154470467</t>
+    <t>96231333</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>88333745</t>
   </si>
   <si>
     <t>complicates</t>
   </si>
   <si>
+    <t>2476543</t>
+  </si>
+  <si>
+    <t>tnf (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18944377</t>
+  </si>
+  <si>
+    <t>56628451</t>
+  </si>
+  <si>
+    <t>28492108</t>
+  </si>
+  <si>
+    <t>28492107</t>
+  </si>
+  <si>
     <t>836771</t>
   </si>
   <si>
     <t>thyroxine</t>
   </si>
   <si>
-    <t>83941339</t>
+    <t>17682519</t>
+  </si>
+  <si>
+    <t>18316735</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
-    <t>83945856</t>
-  </si>
-  <si>
-    <t>84790094</t>
-  </si>
-  <si>
-    <t>159193398</t>
-  </si>
-  <si>
-    <t>2476543</t>
-  </si>
-  <si>
-    <t>tnf (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84877561</t>
-  </si>
-  <si>
-    <t>94593729</t>
-  </si>
-  <si>
-    <t>94593727</t>
-  </si>
-  <si>
-    <t>123138002</t>
-  </si>
-  <si>
-    <t>432075</t>
-  </si>
-  <si>
-    <t>anemia</t>
-  </si>
-  <si>
-    <t>79433511</t>
-  </si>
-  <si>
-    <t>152023315</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>118030273</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>137742925</t>
-  </si>
-  <si>
-    <t>203405285</t>
-  </si>
-  <si>
-    <t>203407065</t>
-  </si>
-  <si>
-    <t>203407043</t>
-  </si>
-  <si>
-    <t>is parent of</t>
-  </si>
-  <si>
-    <t>125715103</t>
-  </si>
-  <si>
-    <t>148337276</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>106242981</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>160284976</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>173849801</t>
-  </si>
-  <si>
-    <t>does not predispose</t>
-  </si>
-  <si>
-    <t>118030319</t>
-  </si>
-  <si>
-    <t>152235559</t>
+    <t>17945070</t>
+  </si>
+  <si>
+    <t>93004807</t>
+  </si>
+  <si>
+    <t>557081</t>
+  </si>
+  <si>
+    <t>proteinuria</t>
+  </si>
+  <si>
+    <t>89468211</t>
+  </si>
+  <si>
+    <t>77180355</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>13129011</t>
+  </si>
+  <si>
+    <t>104403024</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>61312238</t>
+  </si>
+  <si>
+    <t>40057683</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>54995392</t>
+  </si>
+  <si>
+    <t>53418529</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>13129057</t>
+  </si>
+  <si>
+    <t>40115961</t>
+  </si>
+  <si>
+    <t>54187996</t>
+  </si>
+  <si>
+    <t>2792624</t>
+  </si>
+  <si>
+    <t>bcl2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22899558</t>
+  </si>
+  <si>
+    <t>28341856</t>
+  </si>
+  <si>
+    <t>447781</t>
+  </si>
+  <si>
+    <t>fibrosis</t>
+  </si>
+  <si>
+    <t>86963076</t>
+  </si>
+  <si>
+    <t>13128062</t>
+  </si>
+  <si>
+    <t>87046173</t>
+  </si>
+  <si>
+    <t>121269549</t>
+  </si>
+  <si>
+    <t>84140884</t>
+  </si>
+  <si>
+    <t>414518</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t>13128191</t>
+  </si>
+  <si>
+    <t>40057668</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>102587710</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>106586734</t>
+  </si>
+  <si>
+    <t>52316356</t>
   </si>
   <si>
     <t>2791888</t>
@@ -359,25 +491,820 @@
     <t>tgfb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83697529</t>
-  </si>
-  <si>
-    <t>86650605</t>
-  </si>
-  <si>
-    <t>83289098</t>
-  </si>
-  <si>
-    <t>192788191</t>
+    <t>18335949</t>
+  </si>
+  <si>
+    <t>16992800</t>
+  </si>
+  <si>
+    <t>20724658</t>
+  </si>
+  <si>
+    <t>28356619</t>
+  </si>
+  <si>
+    <t>28356621</t>
+  </si>
+  <si>
+    <t>126572374</t>
   </si>
   <si>
     <t>is not associated with</t>
   </si>
   <si>
-    <t>94742746</t>
-  </si>
-  <si>
-    <t>94742751</t>
+    <t>790153</t>
+  </si>
+  <si>
+    <t>hepatitis, drug-induced</t>
+  </si>
+  <si>
+    <t>13127973</t>
+  </si>
+  <si>
+    <t>40164836</t>
+  </si>
+  <si>
+    <t>636875</t>
+  </si>
+  <si>
+    <t>drug-induced liver injury</t>
+  </si>
+  <si>
+    <t>13127961</t>
+  </si>
+  <si>
+    <t>40164833</t>
+  </si>
+  <si>
+    <t>617264</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>13127900</t>
+  </si>
+  <si>
+    <t>39552916</t>
+  </si>
+  <si>
+    <t>536761</t>
+  </si>
+  <si>
+    <t>hepatitis, toxic</t>
+  </si>
+  <si>
+    <t>13127965</t>
+  </si>
+  <si>
+    <t>40164834</t>
+  </si>
+  <si>
+    <t>330405</t>
+  </si>
+  <si>
+    <t>eosinophilia</t>
+  </si>
+  <si>
+    <t>13128024</t>
+  </si>
+  <si>
+    <t>40057672</t>
+  </si>
+  <si>
+    <t>2708576</t>
+  </si>
+  <si>
+    <t>cirrhosis</t>
+  </si>
+  <si>
+    <t>13128058</t>
+  </si>
+  <si>
+    <t>40115957</t>
+  </si>
+  <si>
+    <t>1937679</t>
+  </si>
+  <si>
+    <t>drug-induced acute liver injury</t>
+  </si>
+  <si>
+    <t>13127969</t>
+  </si>
+  <si>
+    <t>40164835</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>132113312</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>99560348</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>98941665</t>
+  </si>
+  <si>
+    <t>52543466</t>
+  </si>
+  <si>
+    <t>82750</t>
+  </si>
+  <si>
+    <t>adriamycin</t>
+  </si>
+  <si>
+    <t>116463930</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>15284763</t>
+  </si>
+  <si>
+    <t>98943124</t>
+  </si>
+  <si>
+    <t>5177473</t>
+  </si>
+  <si>
+    <t>clopidogrel</t>
+  </si>
+  <si>
+    <t>90712550</t>
+  </si>
+  <si>
+    <t>96325110</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>81015018</t>
+  </si>
+  <si>
+    <t>14388537</t>
+  </si>
+  <si>
+    <t>97630341</t>
+  </si>
+  <si>
+    <t>423753</t>
+  </si>
+  <si>
+    <t>intestinal diseases</t>
+  </si>
+  <si>
+    <t>13128864</t>
+  </si>
+  <si>
+    <t>78324271</t>
+  </si>
+  <si>
+    <t>4034195</t>
+  </si>
+  <si>
+    <t>glomerulonephritis</t>
+  </si>
+  <si>
+    <t>13128095</t>
+  </si>
+  <si>
+    <t>84941589</t>
+  </si>
+  <si>
+    <t>2792317</t>
+  </si>
+  <si>
+    <t>il6 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20668297</t>
+  </si>
+  <si>
+    <t>28198994</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>117904694</t>
+  </si>
+  <si>
+    <t>64503394</t>
+  </si>
+  <si>
+    <t>119842406</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>81189673</t>
+  </si>
+  <si>
+    <t>86521823</t>
+  </si>
+  <si>
+    <t>117979009</t>
+  </si>
+  <si>
+    <t>112383817</t>
+  </si>
+  <si>
+    <t>101103893</t>
+  </si>
+  <si>
+    <t>119842375</t>
+  </si>
+  <si>
+    <t>61086449</t>
+  </si>
+  <si>
+    <t>52228785</t>
+  </si>
+  <si>
+    <t>61902182</t>
+  </si>
+  <si>
+    <t>51998630</t>
+  </si>
+  <si>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>66597555</t>
+  </si>
+  <si>
+    <t>53385613</t>
+  </si>
+  <si>
+    <t>61213461</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>55117401</t>
+  </si>
+  <si>
+    <t>114511313</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>66944843</t>
+  </si>
+  <si>
+    <t>97980861</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>64085511</t>
+  </si>
+  <si>
+    <t>56851671</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>86615337</t>
+  </si>
+  <si>
+    <t>114980276</t>
+  </si>
+  <si>
+    <t>84619580</t>
+  </si>
+  <si>
+    <t>72785808</t>
+  </si>
+  <si>
+    <t>52116099</t>
+  </si>
+  <si>
+    <t>75547674</t>
+  </si>
+  <si>
+    <t>78028000</t>
+  </si>
+  <si>
+    <t>56409693</t>
+  </si>
+  <si>
+    <t>122922177</t>
+  </si>
+  <si>
+    <t>55258401</t>
+  </si>
+  <si>
+    <t>68978721</t>
+  </si>
+  <si>
+    <t>105655527</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>78026641</t>
+  </si>
+  <si>
+    <t>79350343</t>
+  </si>
+  <si>
+    <t>99809349</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>52393168</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>104192284</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>60836316</t>
+  </si>
+  <si>
+    <t>51398231</t>
+  </si>
+  <si>
+    <t>130352000</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>105150734</t>
+  </si>
+  <si>
+    <t>57919225</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>76233258</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>51332814</t>
+  </si>
+  <si>
+    <t>70057205</t>
+  </si>
+  <si>
+    <t>51949842</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>61923371</t>
+  </si>
+  <si>
+    <t>75918665</t>
+  </si>
+  <si>
+    <t>217103</t>
+  </si>
+  <si>
+    <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
+  </si>
+  <si>
+    <t>73626608</t>
+  </si>
+  <si>
+    <t>99395668</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>63382190</t>
+  </si>
+  <si>
+    <t>54467855</t>
+  </si>
+  <si>
+    <t>95759329</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>63809851</t>
+  </si>
+  <si>
+    <t>52831467</t>
+  </si>
+  <si>
+    <t>3777320</t>
+  </si>
+  <si>
+    <t>adolescent (age group)</t>
+  </si>
+  <si>
+    <t>112750371</t>
+  </si>
+  <si>
+    <t>51873744</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>63671286</t>
+  </si>
+  <si>
+    <t>65514560</t>
+  </si>
+  <si>
+    <t>68809084</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>111700847</t>
+  </si>
+  <si>
+    <t>53704865</t>
+  </si>
+  <si>
+    <t>47573</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>100741122</t>
+  </si>
+  <si>
+    <t>72074990</t>
+  </si>
+  <si>
+    <t>55511352</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>133719959</t>
+  </si>
+  <si>
+    <t>115723347</t>
+  </si>
+  <si>
+    <t>59272732</t>
+  </si>
+  <si>
+    <t>2449038</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>56953739</t>
+  </si>
+  <si>
+    <t>88117072</t>
+  </si>
+  <si>
+    <t>5699005</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>126935182</t>
+  </si>
+  <si>
+    <t>40115912</t>
+  </si>
+  <si>
+    <t>4035044</t>
+  </si>
+  <si>
+    <t>gout</t>
+  </si>
+  <si>
+    <t>106395611</t>
+  </si>
+  <si>
+    <t>40057721</t>
+  </si>
+  <si>
+    <t>2395251</t>
+  </si>
+  <si>
+    <t>toxic effect</t>
+  </si>
+  <si>
+    <t>122402096</t>
+  </si>
+  <si>
+    <t>55597901</t>
+  </si>
+  <si>
+    <t>60806742</t>
+  </si>
+  <si>
+    <t>84565245</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>108908902</t>
+  </si>
+  <si>
+    <t>88590790</t>
+  </si>
+  <si>
+    <t>101337380</t>
+  </si>
+  <si>
+    <t>119634067</t>
+  </si>
+  <si>
+    <t>4740228</t>
+  </si>
+  <si>
+    <t>voluntary workers</t>
+  </si>
+  <si>
+    <t>78977719</t>
+  </si>
+  <si>
+    <t>92641404</t>
+  </si>
+  <si>
+    <t>58987052</t>
+  </si>
+  <si>
+    <t>4028728</t>
+  </si>
+  <si>
+    <t>house mice</t>
+  </si>
+  <si>
+    <t>127254557</t>
+  </si>
+  <si>
+    <t>65277484</t>
+  </si>
+  <si>
+    <t>2792340</t>
+  </si>
+  <si>
+    <t>gpi (homo sapiens)</t>
+  </si>
+  <si>
+    <t>117536542</t>
+  </si>
+  <si>
+    <t>28396074</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>127790655</t>
+  </si>
+  <si>
+    <t>63242002</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>90757215</t>
+  </si>
+  <si>
+    <t>77897985</t>
+  </si>
+  <si>
+    <t>56457297</t>
+  </si>
+  <si>
+    <t>69252859</t>
+  </si>
+  <si>
+    <t>92451637</t>
+  </si>
+  <si>
+    <t>608720</t>
+  </si>
+  <si>
+    <t>communicable diseases</t>
+  </si>
+  <si>
+    <t>113013577</t>
+  </si>
+  <si>
+    <t>99728437</t>
+  </si>
+  <si>
+    <t>67977892</t>
+  </si>
+  <si>
+    <t>56465253</t>
+  </si>
+  <si>
+    <t>63218956</t>
+  </si>
+  <si>
+    <t>74331118</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>63881202</t>
+  </si>
+  <si>
+    <t>55366804</t>
+  </si>
+  <si>
+    <t>96880236</t>
+  </si>
+  <si>
+    <t>76282727</t>
+  </si>
+  <si>
+    <t>96853377</t>
+  </si>
+  <si>
+    <t>4047989</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>129807732</t>
+  </si>
+  <si>
+    <t>75885139</t>
+  </si>
+  <si>
+    <t>95399308</t>
+  </si>
+  <si>
+    <t>35277</t>
+  </si>
+  <si>
+    <t>animal model</t>
+  </si>
+  <si>
+    <t>125591422</t>
+  </si>
+  <si>
+    <t>102378588</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>106732714</t>
+  </si>
+  <si>
+    <t>62741320</t>
+  </si>
+  <si>
+    <t>2979724</t>
+  </si>
+  <si>
+    <t>follow-up</t>
+  </si>
+  <si>
+    <t>113276551</t>
+  </si>
+  <si>
+    <t>78103216</t>
+  </si>
+  <si>
+    <t>2510916</t>
+  </si>
+  <si>
+    <t>hypotensive</t>
+  </si>
+  <si>
+    <t>64086021</t>
+  </si>
+  <si>
+    <t>94423106</t>
+  </si>
+  <si>
+    <t>836219</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>114855347</t>
+  </si>
+  <si>
+    <t>65699207</t>
+  </si>
+  <si>
+    <t>62739342</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>77896575</t>
+  </si>
+  <si>
+    <t>98326497</t>
   </si>
   <si>
     <t>760841</t>
@@ -386,64 +1313,343 @@
     <t>domestic rabbit</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>68896571</t>
-  </si>
-  <si>
-    <t>161804851</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>160824437</t>
-  </si>
-  <si>
-    <t>70906473</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>76809662</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>164187447</t>
-  </si>
-  <si>
-    <t>2792624</t>
-  </si>
-  <si>
-    <t>bcl2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88683994</t>
-  </si>
-  <si>
-    <t>94727626</t>
-  </si>
-  <si>
-    <t>557081</t>
-  </si>
-  <si>
-    <t>proteinuria</t>
-  </si>
-  <si>
-    <t>79434581</t>
-  </si>
-  <si>
-    <t>106245006</t>
+    <t>73627109</t>
+  </si>
+  <si>
+    <t>95605111</t>
+  </si>
+  <si>
+    <t>700033</t>
+  </si>
+  <si>
+    <t>angiotensinogen (homo sapiens)</t>
+  </si>
+  <si>
+    <t>109630104</t>
+  </si>
+  <si>
+    <t>113383825</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>51343025</t>
+  </si>
+  <si>
+    <t>70314866</t>
+  </si>
+  <si>
+    <t>78127646</t>
+  </si>
+  <si>
+    <t>99052014</t>
+  </si>
+  <si>
+    <t>92642867</t>
+  </si>
+  <si>
+    <t>85403750</t>
+  </si>
+  <si>
+    <t>103475148</t>
+  </si>
+  <si>
+    <t>81770096</t>
+  </si>
+  <si>
+    <t>102218738</t>
+  </si>
+  <si>
+    <t>65860369</t>
+  </si>
+  <si>
+    <t>591019</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>57114666</t>
+  </si>
+  <si>
+    <t>133866746</t>
+  </si>
+  <si>
+    <t>5792464</t>
+  </si>
+  <si>
+    <t>elderly (population group)</t>
+  </si>
+  <si>
+    <t>61836888</t>
+  </si>
+  <si>
+    <t>85095517</t>
+  </si>
+  <si>
+    <t>45119</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>108908878</t>
+  </si>
+  <si>
+    <t>88294182</t>
+  </si>
+  <si>
+    <t>87434587</t>
+  </si>
+  <si>
+    <t>71269478</t>
+  </si>
+  <si>
+    <t>112784572</t>
+  </si>
+  <si>
+    <t>67030369</t>
+  </si>
+  <si>
+    <t>427826</t>
+  </si>
+  <si>
+    <t>lisinopril</t>
+  </si>
+  <si>
+    <t>129462824</t>
+  </si>
+  <si>
+    <t>80371806</t>
+  </si>
+  <si>
+    <t>103659134</t>
+  </si>
+  <si>
+    <t>13704526</t>
+  </si>
+  <si>
+    <t>4042269</t>
+  </si>
+  <si>
+    <t>blood vessel</t>
+  </si>
+  <si>
+    <t>104920700</t>
+  </si>
+  <si>
+    <t>70334924</t>
+  </si>
+  <si>
+    <t>58716981</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>61836500</t>
+  </si>
+  <si>
+    <t>96969479</t>
+  </si>
+  <si>
+    <t>54429158</t>
+  </si>
+  <si>
+    <t>115041135</t>
+  </si>
+  <si>
+    <t>3750539</t>
+  </si>
+  <si>
+    <t>acute hepatitis, nos</t>
+  </si>
+  <si>
+    <t>113508091</t>
+  </si>
+  <si>
+    <t>127995093</t>
+  </si>
+  <si>
+    <t>51365986</t>
+  </si>
+  <si>
+    <t>127403928</t>
+  </si>
+  <si>
+    <t>127995061</t>
+  </si>
+  <si>
+    <t>308092</t>
+  </si>
+  <si>
+    <t>agonists</t>
+  </si>
+  <si>
+    <t>132720647</t>
+  </si>
+  <si>
+    <t>58268846</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>77903879</t>
+  </si>
+  <si>
+    <t>77936672</t>
+  </si>
+  <si>
+    <t>51542884</t>
+  </si>
+  <si>
+    <t>58435725</t>
+  </si>
+  <si>
+    <t>61440612</t>
+  </si>
+  <si>
+    <t>54415668</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>90947984</t>
+  </si>
+  <si>
+    <t>62195670</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>69012570</t>
+  </si>
+  <si>
+    <t>60801202</t>
+  </si>
+  <si>
+    <t>132067148</t>
+  </si>
+  <si>
+    <t>132068143</t>
+  </si>
+  <si>
+    <t>131172637</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>266660</t>
+  </si>
+  <si>
+    <t>insulin resistance</t>
+  </si>
+  <si>
+    <t>127675888</t>
+  </si>
+  <si>
+    <t>111026457</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>127675728</t>
+  </si>
+  <si>
+    <t>62720739</t>
+  </si>
+  <si>
+    <t>2558103</t>
+  </si>
+  <si>
+    <t>atm (homo sapiens)</t>
+  </si>
+  <si>
+    <t>105264694</t>
+  </si>
+  <si>
+    <t>62920754</t>
+  </si>
+  <si>
+    <t>100779549</t>
+  </si>
+  <si>
+    <t>105580556</t>
+  </si>
+  <si>
+    <t>87368971</t>
+  </si>
+  <si>
+    <t>28153434</t>
+  </si>
+  <si>
+    <t>113621196</t>
+  </si>
+  <si>
+    <t>249692</t>
+  </si>
+  <si>
+    <t>interferon gamma (homo sapiens)</t>
+  </si>
+  <si>
+    <t>121414670</t>
+  </si>
+  <si>
+    <t>123189054</t>
+  </si>
+  <si>
+    <t>53893589</t>
+  </si>
+  <si>
+    <t>67401328</t>
+  </si>
+  <si>
+    <t>79987011</t>
+  </si>
+  <si>
+    <t>88066885</t>
+  </si>
+  <si>
+    <t>88067315</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>142958544</t>
+  </si>
+  <si>
+    <t>gene product malfunction is associated with</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>75663336</t>
+  </si>
+  <si>
+    <t>133384588</t>
   </si>
   <si>
     <t>133368</t>
@@ -452,208 +1658,205 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>75302255</t>
-  </si>
-  <si>
-    <t>160824485</t>
-  </si>
-  <si>
-    <t>181260055</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>118980329</t>
-  </si>
-  <si>
-    <t>129696595</t>
-  </si>
-  <si>
-    <t>790153</t>
-  </si>
-  <si>
-    <t>hepatitis, drug-induced</t>
-  </si>
-  <si>
-    <t>79433922</t>
-  </si>
-  <si>
-    <t>106359944</t>
-  </si>
-  <si>
-    <t>636875</t>
-  </si>
-  <si>
-    <t>drug-induced liver injury</t>
-  </si>
-  <si>
-    <t>79433916</t>
-  </si>
-  <si>
-    <t>106359939</t>
-  </si>
-  <si>
-    <t>617264</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>79433892</t>
-  </si>
-  <si>
-    <t>105905741</t>
-  </si>
-  <si>
-    <t>536761</t>
-  </si>
-  <si>
-    <t>hepatitis, toxic</t>
-  </si>
-  <si>
-    <t>79433920</t>
-  </si>
-  <si>
-    <t>106359942</t>
-  </si>
-  <si>
-    <t>414518</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t>79434016</t>
-  </si>
-  <si>
-    <t>106244990</t>
-  </si>
-  <si>
-    <t>330405</t>
-  </si>
-  <si>
-    <t>eosinophilia</t>
-  </si>
-  <si>
-    <t>79433954</t>
-  </si>
-  <si>
-    <t>106244993</t>
-  </si>
-  <si>
-    <t>2708576</t>
-  </si>
-  <si>
-    <t>cirrhosis</t>
-  </si>
-  <si>
-    <t>79433971</t>
-  </si>
-  <si>
-    <t>106297243</t>
-  </si>
-  <si>
-    <t>1937679</t>
-  </si>
-  <si>
-    <t>drug-induced acute liver injury</t>
-  </si>
-  <si>
-    <t>79433918</t>
-  </si>
-  <si>
-    <t>106359941</t>
-  </si>
-  <si>
-    <t>447781</t>
-  </si>
-  <si>
-    <t>fibrosis</t>
-  </si>
-  <si>
-    <t>79433973</t>
-  </si>
-  <si>
-    <t>150520532</t>
-  </si>
-  <si>
-    <t>423753</t>
-  </si>
-  <si>
-    <t>intestinal diseases</t>
-  </si>
-  <si>
-    <t>79434442</t>
-  </si>
-  <si>
-    <t>144771229</t>
-  </si>
-  <si>
-    <t>4034195</t>
-  </si>
-  <si>
-    <t>glomerulonephritis</t>
-  </si>
-  <si>
-    <t>79433988</t>
-  </si>
-  <si>
-    <t>151412247</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>79434615</t>
-  </si>
-  <si>
-    <t>106297253</t>
-  </si>
-  <si>
-    <t>120646056</t>
-  </si>
-  <si>
-    <t>2792317</t>
-  </si>
-  <si>
-    <t>il6 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>86720808</t>
-  </si>
-  <si>
-    <t>94572850</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>105774171</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>128288985</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>124087779</t>
-  </si>
-  <si>
-    <t>118474569</t>
-  </si>
-  <si>
-    <t>118277386</t>
+    <t>54303043</t>
+  </si>
+  <si>
+    <t>104806375</t>
+  </si>
+  <si>
+    <t>115062787</t>
+  </si>
+  <si>
+    <t>63230146</t>
+  </si>
+  <si>
+    <t>52694104</t>
+  </si>
+  <si>
+    <t>1074935</t>
+  </si>
+  <si>
+    <t>traumatic injury</t>
+  </si>
+  <si>
+    <t>74921355</t>
+  </si>
+  <si>
+    <t>131014379</t>
+  </si>
+  <si>
+    <t>87051597</t>
+  </si>
+  <si>
+    <t>100696256</t>
+  </si>
+  <si>
+    <t>58172272</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>129966712</t>
+  </si>
+  <si>
+    <t>63530972</t>
+  </si>
+  <si>
+    <t>54442196</t>
+  </si>
+  <si>
+    <t>837405</t>
+  </si>
+  <si>
+    <t>malignant neoplasms</t>
+  </si>
+  <si>
+    <t>133632861</t>
+  </si>
+  <si>
+    <t>133625876</t>
+  </si>
+  <si>
+    <t>69828334</t>
+  </si>
+  <si>
+    <t>82649499</t>
+  </si>
+  <si>
+    <t>80627185</t>
+  </si>
+  <si>
+    <t>114102976</t>
+  </si>
+  <si>
+    <t>59859276</t>
+  </si>
+  <si>
+    <t>94794636</t>
+  </si>
+  <si>
+    <t>52243458</t>
+  </si>
+  <si>
+    <t>79856890</t>
+  </si>
+  <si>
+    <t>59859133</t>
+  </si>
+  <si>
+    <t>837232</t>
+  </si>
+  <si>
+    <t>cytochrome p450</t>
+  </si>
+  <si>
+    <t>119022321</t>
+  </si>
+  <si>
+    <t>84989063</t>
+  </si>
+  <si>
+    <t>61902451</t>
+  </si>
+  <si>
+    <t>837008</t>
+  </si>
+  <si>
+    <t>p-glycoprotein</t>
+  </si>
+  <si>
+    <t>131643703</t>
+  </si>
+  <si>
+    <t>108607697</t>
+  </si>
+  <si>
+    <t>644539</t>
+  </si>
+  <si>
+    <t>lymphocyte activation</t>
+  </si>
+  <si>
+    <t>121414555</t>
+  </si>
+  <si>
+    <t>121414482</t>
+  </si>
+  <si>
+    <t>102951744</t>
+  </si>
+  <si>
+    <t>6435130</t>
+  </si>
+  <si>
+    <t>cell adhesion protein</t>
+  </si>
+  <si>
+    <t>64565315</t>
+  </si>
+  <si>
+    <t>113911080</t>
+  </si>
+  <si>
+    <t>643114</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>62222541</t>
+  </si>
+  <si>
+    <t>65223999</t>
+  </si>
+  <si>
+    <t>6116946</t>
+  </si>
+  <si>
+    <t>cholestatic hepatitis</t>
+  </si>
+  <si>
+    <t>59652705</t>
+  </si>
+  <si>
+    <t>91022852</t>
+  </si>
+  <si>
+    <t>6107601</t>
+  </si>
+  <si>
+    <t>expression procedure</t>
+  </si>
+  <si>
+    <t>125933688</t>
+  </si>
+  <si>
+    <t>98831826</t>
+  </si>
+  <si>
+    <t>52366255</t>
+  </si>
+  <si>
+    <t>100129900</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>74843447</t>
+  </si>
+  <si>
+    <t>104248729</t>
+  </si>
+  <si>
+    <t>112419202</t>
   </si>
   <si>
     <t>5648228</t>
@@ -662,160 +1865,469 @@
     <t>therapeutic procedure</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>163840335</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>127818550</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>170219445</t>
-  </si>
-  <si>
-    <t>170219544</t>
+    <t>70390580</t>
+  </si>
+  <si>
+    <t>107565163</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>109750188</t>
+  </si>
+  <si>
+    <t>51398372</t>
+  </si>
+  <si>
+    <t>77582524</t>
+  </si>
+  <si>
+    <t>70274404</t>
+  </si>
+  <si>
+    <t>104012656</t>
   </si>
   <si>
     <t>is method of</t>
   </si>
   <si>
-    <t>117518878</t>
-  </si>
-  <si>
-    <t>192812648</t>
-  </si>
-  <si>
-    <t>143443044</t>
-  </si>
-  <si>
-    <t>119466536</t>
-  </si>
-  <si>
-    <t>141553149</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>117516492</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>105774176</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>135175594</t>
-  </si>
-  <si>
-    <t>131859584</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>47573</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>153912666</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>121910954</t>
-  </si>
-  <si>
-    <t>2449184</t>
-  </si>
-  <si>
-    <t>tissue membrane</t>
-  </si>
-  <si>
-    <t>105774175</t>
-  </si>
-  <si>
-    <t>122463318</t>
-  </si>
-  <si>
-    <t>5698700</t>
-  </si>
-  <si>
-    <t>testosterone</t>
-  </si>
-  <si>
-    <t>160824673</t>
-  </si>
-  <si>
-    <t>119466823</t>
-  </si>
-  <si>
-    <t>118636869</t>
-  </si>
-  <si>
-    <t>4027086</t>
-  </si>
-  <si>
-    <t>naproxen</t>
-  </si>
-  <si>
-    <t>160824731</t>
-  </si>
-  <si>
-    <t>134195102</t>
-  </si>
-  <si>
-    <t>81072216</t>
-  </si>
-  <si>
-    <t>700033</t>
-  </si>
-  <si>
-    <t>angiotensinogen (homo sapiens)</t>
-  </si>
-  <si>
-    <t>151209669</t>
-  </si>
-  <si>
-    <t>151209806</t>
-  </si>
-  <si>
-    <t>122266421</t>
-  </si>
-  <si>
-    <t>132193063</t>
-  </si>
-  <si>
-    <t>2510916</t>
-  </si>
-  <si>
-    <t>hypotensive</t>
-  </si>
-  <si>
-    <t>156928279</t>
-  </si>
-  <si>
-    <t>160600074</t>
+    <t>76957758</t>
+  </si>
+  <si>
+    <t>126603355</t>
+  </si>
+  <si>
+    <t>53145912</t>
+  </si>
+  <si>
+    <t>75074766</t>
+  </si>
+  <si>
+    <t>61427406</t>
+  </si>
+  <si>
+    <t>51332942</t>
+  </si>
+  <si>
+    <t>51321128</t>
+  </si>
+  <si>
+    <t>104012553</t>
+  </si>
+  <si>
+    <t>500963</t>
+  </si>
+  <si>
+    <t>alleles</t>
+  </si>
+  <si>
+    <t>92641036</t>
+  </si>
+  <si>
+    <t>80126158</t>
+  </si>
+  <si>
+    <t>4821498</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>128963727</t>
+  </si>
+  <si>
+    <t>100724494</t>
+  </si>
+  <si>
+    <t>67401474</t>
+  </si>
+  <si>
+    <t>105434295</t>
+  </si>
+  <si>
+    <t>51683304</t>
+  </si>
+  <si>
+    <t>85625895</t>
+  </si>
+  <si>
+    <t>4788782</t>
+  </si>
+  <si>
+    <t>pulmonary fibrosis</t>
+  </si>
+  <si>
+    <t>74921880</t>
+  </si>
+  <si>
+    <t>40059257</t>
+  </si>
+  <si>
+    <t>116488421</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>106388727</t>
+  </si>
+  <si>
+    <t>53096680</t>
+  </si>
+  <si>
+    <t>431254</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>116650327</t>
+  </si>
+  <si>
+    <t>107155649</t>
+  </si>
+  <si>
+    <t>51597445</t>
+  </si>
+  <si>
+    <t>4048132</t>
+  </si>
+  <si>
+    <t>nifedipine</t>
+  </si>
+  <si>
+    <t>117547427</t>
+  </si>
+  <si>
+    <t>61701433</t>
+  </si>
+  <si>
+    <t>82397995</t>
+  </si>
+  <si>
+    <t>14902933</t>
+  </si>
+  <si>
+    <t>107460345</t>
+  </si>
+  <si>
+    <t>4041187</t>
+  </si>
+  <si>
+    <t>dna</t>
+  </si>
+  <si>
+    <t>100894979</t>
+  </si>
+  <si>
+    <t>108905430</t>
+  </si>
+  <si>
+    <t>125183178</t>
+  </si>
+  <si>
+    <t>4040839</t>
+  </si>
+  <si>
+    <t>diabetes mellitus</t>
+  </si>
+  <si>
+    <t>74423217</t>
+  </si>
+  <si>
+    <t>100947435</t>
+  </si>
+  <si>
+    <t>4035333</t>
+  </si>
+  <si>
+    <t>estrogens</t>
+  </si>
+  <si>
+    <t>120113368</t>
+  </si>
+  <si>
+    <t>64491714</t>
+  </si>
+  <si>
+    <t>4034351</t>
+  </si>
+  <si>
+    <t>cessation of life</t>
+  </si>
+  <si>
+    <t>114152178</t>
+  </si>
+  <si>
+    <t>does not disrupt</t>
+  </si>
+  <si>
+    <t>58951075</t>
+  </si>
+  <si>
+    <t>103843450</t>
+  </si>
+  <si>
+    <t>4028790</t>
+  </si>
+  <si>
+    <t>myocardium</t>
+  </si>
+  <si>
+    <t>101058999</t>
+  </si>
+  <si>
+    <t>111930828</t>
+  </si>
+  <si>
+    <t>4027143</t>
+  </si>
+  <si>
+    <t>obstruction</t>
+  </si>
+  <si>
+    <t>113880843</t>
+  </si>
+  <si>
+    <t>76361045</t>
+  </si>
+  <si>
+    <t>74388799</t>
+  </si>
+  <si>
+    <t>3815098</t>
+  </si>
+  <si>
+    <t>rna, messenger</t>
+  </si>
+  <si>
+    <t>77238971</t>
+  </si>
+  <si>
+    <t>89303662</t>
+  </si>
+  <si>
+    <t>3814747</t>
+  </si>
+  <si>
+    <t>simian b disease</t>
+  </si>
+  <si>
+    <t>119148039</t>
+  </si>
+  <si>
+    <t>119147873</t>
+  </si>
+  <si>
+    <t>103566437</t>
+  </si>
+  <si>
+    <t>93468714</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>109893861</t>
+  </si>
+  <si>
+    <t>94611745</t>
+  </si>
+  <si>
+    <t>73083740</t>
+  </si>
+  <si>
+    <t>3784305</t>
+  </si>
+  <si>
+    <t>functional disorder</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>128567782</t>
+  </si>
+  <si>
+    <t>88294873</t>
+  </si>
+  <si>
+    <t>82044052</t>
+  </si>
+  <si>
+    <t>118662919</t>
+  </si>
+  <si>
+    <t>59852402</t>
+  </si>
+  <si>
+    <t>74879050</t>
+  </si>
+  <si>
+    <t>115692390</t>
+  </si>
+  <si>
+    <t>90239190</t>
+  </si>
+  <si>
+    <t>59028816</t>
+  </si>
+  <si>
+    <t>3781901</t>
+  </si>
+  <si>
+    <t>lesion</t>
+  </si>
+  <si>
+    <t>104398340</t>
+  </si>
+  <si>
+    <t>107353812</t>
+  </si>
+  <si>
+    <t>61298961</t>
+  </si>
+  <si>
+    <t>3761947</t>
+  </si>
+  <si>
+    <t>anemia, severe</t>
+  </si>
+  <si>
+    <t>94999907</t>
+  </si>
+  <si>
+    <t>132092218</t>
+  </si>
+  <si>
+    <t>87167115</t>
+  </si>
+  <si>
+    <t>78283479</t>
+  </si>
+  <si>
+    <t>3733169</t>
+  </si>
+  <si>
+    <t>infiltration</t>
+  </si>
+  <si>
+    <t>132720812</t>
+  </si>
+  <si>
+    <t>67992011</t>
+  </si>
+  <si>
+    <t>332232</t>
+  </si>
+  <si>
+    <t>transforming growth factor beta-1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>113407758</t>
+  </si>
+  <si>
+    <t>78663558</t>
+  </si>
+  <si>
+    <t>96927167</t>
+  </si>
+  <si>
+    <t>113893876</t>
+  </si>
+  <si>
+    <t>2940391</t>
+  </si>
+  <si>
+    <t>tumor necrosis factor-alpha</t>
+  </si>
+  <si>
+    <t>121628289</t>
+  </si>
+  <si>
+    <t>120229439</t>
+  </si>
+  <si>
+    <t>62145280</t>
+  </si>
+  <si>
+    <t>2899046</t>
+  </si>
+  <si>
+    <t>areae</t>
+  </si>
+  <si>
+    <t>94178740</t>
+  </si>
+  <si>
+    <t>92239726</t>
+  </si>
+  <si>
+    <t>2632664</t>
+  </si>
+  <si>
+    <t>nitric oxide synthase, inducible (homo sapiens)</t>
+  </si>
+  <si>
+    <t>68551941</t>
+  </si>
+  <si>
+    <t>116799740</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>77930518</t>
+  </si>
+  <si>
+    <t>79212580</t>
+  </si>
+  <si>
+    <t>124968488</t>
+  </si>
+  <si>
+    <t>2449678</t>
+  </si>
+  <si>
+    <t>pleiotropism</t>
+  </si>
+  <si>
+    <t>61934527</t>
+  </si>
+  <si>
+    <t>105466623</t>
+  </si>
+  <si>
+    <t>2449328</t>
+  </si>
+  <si>
+    <t>cell injury</t>
+  </si>
+  <si>
+    <t>94267701</t>
+  </si>
+  <si>
+    <t>115450430</t>
+  </si>
+  <si>
+    <t>56911792</t>
+  </si>
+  <si>
+    <t>105701536</t>
+  </si>
+  <si>
+    <t>113791857</t>
   </si>
   <si>
     <t>2396875</t>
@@ -824,13 +2336,52 @@
     <t>receptor</t>
   </si>
   <si>
-    <t>149544461</t>
-  </si>
-  <si>
-    <t>155477397</t>
-  </si>
-  <si>
-    <t>155487189</t>
+    <t>94463986</t>
+  </si>
+  <si>
+    <t>87282403</t>
+  </si>
+  <si>
+    <t>110362199</t>
+  </si>
+  <si>
+    <t>85581120</t>
+  </si>
+  <si>
+    <t>89305775</t>
+  </si>
+  <si>
+    <t>89295023</t>
+  </si>
+  <si>
+    <t>100020</t>
+  </si>
+  <si>
+    <t>single nucleotide polymorphism</t>
+  </si>
+  <si>
+    <t>85346150</t>
+  </si>
+  <si>
+    <t>80470954</t>
+  </si>
+  <si>
+    <t>122755827</t>
+  </si>
+  <si>
+    <t>109521293</t>
+  </si>
+  <si>
+    <t>124171</t>
+  </si>
+  <si>
+    <t>multicatalytic endopeptidase complex</t>
+  </si>
+  <si>
+    <t>107643554</t>
+  </si>
+  <si>
+    <t>90332360</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +2586,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>500.0</v>
+        <v>4772.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1062,42 +2613,96 @@
         <v>57</v>
       </c>
       <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>149.0</v>
+        <v>890.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1109,13 +2714,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1124,30 +2729,42 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>133.0</v>
+        <v>469.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1159,13 +2776,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -1174,36 +2791,36 @@
         <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="R4" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86.0</v>
+        <v>94.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1215,51 +2832,51 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
         <v>85</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" t="s">
         <v>89</v>
-      </c>
-      <c r="R5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75.0</v>
+        <v>65.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1271,13 +2888,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1286,96 +2903,36 @@
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" t="s">
         <v>97</v>
-      </c>
-      <c r="R6" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" t="s">
-        <v>100</v>
-      </c>
-      <c r="X6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1387,10 +2944,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -1402,48 +2959,48 @@
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="U7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1455,13 +3012,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1470,24 +3027,24 @@
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48.0</v>
+        <v>41.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1499,13 +3056,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1514,31 +3071,25 @@
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1561,7 +3112,7 @@
         <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1570,19 +3121,19 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>138</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
         <v>139</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -1605,7 +3156,7 @@
         <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1614,24 +3165,42 @@
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
         <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s">
         <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1643,13 +3212,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1658,42 +3227,24 @@
         <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>150</v>
-      </c>
-      <c r="R12" t="s">
-        <v>127</v>
-      </c>
-      <c r="S12" t="s">
-        <v>151</v>
-      </c>
-      <c r="T12" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1705,39 +3256,45 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
         <v>152</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
         <v>153</v>
       </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>154</v>
-      </c>
-      <c r="L13" t="s">
-        <v>74</v>
       </c>
       <c r="M13" t="s">
         <v>155</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1749,13 +3306,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -1764,19 +3321,43 @@
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>162</v>
+      </c>
+      <c r="R14" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" t="s">
+        <v>163</v>
+      </c>
+      <c r="T14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" t="s">
+        <v>164</v>
+      </c>
+      <c r="V14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -1793,13 +3374,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -1808,19 +3389,19 @@
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1837,13 +3418,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -1852,19 +3433,19 @@
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -1881,13 +3462,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -1896,19 +3477,19 @@
         <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +3506,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -1940,19 +3521,19 @@
         <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -1969,13 +3550,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -1984,19 +3565,19 @@
         <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2013,13 +3594,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2028,24 +3609,24 @@
         <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M20" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2057,13 +3638,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -2072,24 +3653,24 @@
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2101,13 +3682,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -2116,19 +3697,31 @@
         <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>202</v>
+      </c>
+      <c r="R22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -2145,13 +3738,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -2160,19 +3753,25 @@
         <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="O23" t="s">
+        <v>208</v>
+      </c>
+      <c r="P23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -2189,13 +3788,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2204,25 +3803,37 @@
         <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="N24" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>215</v>
+      </c>
+      <c r="R24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" t="s">
+        <v>216</v>
+      </c>
+      <c r="T24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2239,10 +3850,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
@@ -2254,24 +3865,24 @@
         <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="N25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2283,13 +3894,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -2298,42 +3909,24 @@
         <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
-      </c>
-      <c r="O26" t="s">
-        <v>211</v>
-      </c>
-      <c r="P26" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>212</v>
-      </c>
-      <c r="R26" t="s">
-        <v>104</v>
-      </c>
-      <c r="S26" t="s">
-        <v>213</v>
-      </c>
-      <c r="T26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -2345,13 +3938,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2360,72 +3953,24 @@
         <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
-      </c>
-      <c r="O27" t="s">
-        <v>221</v>
-      </c>
-      <c r="P27" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>222</v>
-      </c>
-      <c r="R27" t="s">
-        <v>223</v>
-      </c>
-      <c r="S27" t="s">
-        <v>224</v>
-      </c>
-      <c r="T27" t="s">
-        <v>104</v>
-      </c>
-      <c r="U27" t="s">
-        <v>225</v>
-      </c>
-      <c r="V27" t="s">
-        <v>76</v>
-      </c>
-      <c r="W27" t="s">
-        <v>226</v>
-      </c>
-      <c r="X27" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -2437,45 +3982,105 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" t="s">
         <v>231</v>
       </c>
-      <c r="F28" t="s">
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" t="s">
         <v>232</v>
       </c>
-      <c r="G28" t="s">
+      <c r="N28" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" t="s">
         <v>233</v>
       </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="P28" t="s">
         <v>234</v>
       </c>
-      <c r="L28" t="s">
+      <c r="Q28" t="s">
         <v>235</v>
       </c>
-      <c r="M28" t="s">
+      <c r="R28" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" t="s">
         <v>236</v>
       </c>
-      <c r="N28" t="s">
-        <v>127</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="T28" t="s">
+        <v>206</v>
+      </c>
+      <c r="U28" t="s">
         <v>237</v>
       </c>
-      <c r="P28" t="s">
+      <c r="V28" t="s">
+        <v>206</v>
+      </c>
+      <c r="W28" t="s">
         <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2487,13 +4092,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2502,24 +4107,30 @@
         <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>73</v>
+      </c>
+      <c r="O29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2531,13 +4142,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -2546,24 +4157,36 @@
         <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="M30" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>256</v>
+      </c>
+      <c r="R30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -2575,13 +4198,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -2590,30 +4213,24 @@
         <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s">
-        <v>108</v>
-      </c>
-      <c r="O31" t="s">
-        <v>252</v>
-      </c>
-      <c r="P31" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -2625,45 +4242,99 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" t="s">
+        <v>264</v>
+      </c>
+      <c r="N32" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" t="s">
+        <v>265</v>
+      </c>
+      <c r="P32" t="s">
         <v>254</v>
       </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" t="s">
-        <v>255</v>
-      </c>
-      <c r="L32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32" t="s">
-        <v>256</v>
-      </c>
-      <c r="N32" t="s">
-        <v>210</v>
-      </c>
-      <c r="O32" t="s">
-        <v>257</v>
-      </c>
-      <c r="P32" t="s">
-        <v>74</v>
+      <c r="Q32" t="s">
+        <v>266</v>
+      </c>
+      <c r="R32" t="s">
+        <v>63</v>
+      </c>
+      <c r="S32" t="s">
+        <v>267</v>
+      </c>
+      <c r="T32" t="s">
+        <v>69</v>
+      </c>
+      <c r="U32" t="s">
+        <v>268</v>
+      </c>
+      <c r="V32" t="s">
+        <v>63</v>
+      </c>
+      <c r="W32" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -2675,13 +4346,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -2690,36 +4361,36 @@
         <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="M33" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="O33" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Q33" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="R33" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -2731,13 +4402,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -2746,69 +4417,4641 @@
         <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>154</v>
+      </c>
+      <c r="O34" t="s">
+        <v>287</v>
+      </c>
+      <c r="P34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>288</v>
+      </c>
+      <c r="R34" t="s">
+        <v>289</v>
+      </c>
+      <c r="S34" t="s">
+        <v>290</v>
+      </c>
+      <c r="T34" t="s">
+        <v>254</v>
+      </c>
+      <c r="U34" t="s">
+        <v>291</v>
+      </c>
+      <c r="V34" t="s">
+        <v>292</v>
+      </c>
+      <c r="W34" t="s">
+        <v>293</v>
+      </c>
+      <c r="X34" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" t="s">
+        <v>301</v>
+      </c>
+      <c r="N35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
+        <v>305</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>307</v>
+      </c>
+      <c r="P36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>308</v>
+      </c>
+      <c r="R36" t="s">
+        <v>63</v>
+      </c>
+      <c r="S36" t="s">
+        <v>309</v>
+      </c>
+      <c r="T36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" t="s">
+        <v>313</v>
+      </c>
+      <c r="N37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>314</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" t="s">
+        <v>317</v>
+      </c>
+      <c r="N38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>318</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" t="s">
+        <v>322</v>
+      </c>
+      <c r="N39" t="s">
+        <v>254</v>
+      </c>
+      <c r="O39" t="s">
+        <v>323</v>
+      </c>
+      <c r="P39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>324</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" t="s">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>328</v>
+      </c>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>320</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>306</v>
+      </c>
+      <c r="M41" t="s">
+        <v>331</v>
+      </c>
+      <c r="N41" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s">
+        <v>332</v>
+      </c>
+      <c r="P41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" t="s">
+        <v>336</v>
+      </c>
+      <c r="N42" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" t="s">
+        <v>337</v>
+      </c>
+      <c r="P42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>338</v>
+      </c>
+      <c r="F43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" t="s">
+        <v>341</v>
+      </c>
+      <c r="N43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" t="s">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s">
+        <v>97</v>
+      </c>
+      <c r="M45" t="s">
+        <v>349</v>
+      </c>
+      <c r="N45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>350</v>
+      </c>
+      <c r="F46" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" t="s">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" t="s">
+        <v>354</v>
+      </c>
+      <c r="P46" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>355</v>
+      </c>
+      <c r="R46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>356</v>
+      </c>
+      <c r="F47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" t="s">
+        <v>358</v>
+      </c>
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M47" t="s">
+        <v>360</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" t="s">
+        <v>361</v>
+      </c>
+      <c r="P47" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>362</v>
+      </c>
+      <c r="R47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" t="s">
+        <v>366</v>
+      </c>
+      <c r="N48" t="s">
+        <v>154</v>
+      </c>
+      <c r="O48" t="s">
+        <v>367</v>
+      </c>
+      <c r="P48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" t="s">
+        <v>370</v>
+      </c>
+      <c r="L49" t="s">
+        <v>97</v>
+      </c>
+      <c r="M49" t="s">
+        <v>371</v>
+      </c>
+      <c r="N49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50" t="s">
+        <v>375</v>
+      </c>
+      <c r="N50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>376</v>
+      </c>
+      <c r="F51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M51" t="s">
+        <v>379</v>
+      </c>
+      <c r="N51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>380</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>198</v>
+      </c>
+      <c r="M52" t="s">
+        <v>383</v>
+      </c>
+      <c r="N52" t="s">
+        <v>234</v>
+      </c>
+      <c r="O52" t="s">
+        <v>384</v>
+      </c>
+      <c r="P52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>385</v>
+      </c>
+      <c r="R52" t="s">
+        <v>198</v>
+      </c>
+      <c r="S52" t="s">
+        <v>386</v>
+      </c>
+      <c r="T52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" t="s">
+        <v>390</v>
+      </c>
+      <c r="N53" t="s">
+        <v>119</v>
+      </c>
+      <c r="O53" t="s">
+        <v>391</v>
+      </c>
+      <c r="P53" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>392</v>
+      </c>
+      <c r="R53" t="s">
+        <v>101</v>
+      </c>
+      <c r="S53" t="s">
+        <v>393</v>
+      </c>
+      <c r="T53" t="s">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s">
+        <v>394</v>
+      </c>
+      <c r="V53" t="s">
+        <v>395</v>
+      </c>
+      <c r="W53" t="s">
+        <v>396</v>
+      </c>
+      <c r="X53" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>401</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" t="s">
+        <v>254</v>
+      </c>
+      <c r="M54" t="s">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" t="s">
+        <v>405</v>
+      </c>
+      <c r="P54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>406</v>
+      </c>
+      <c r="F55" t="s">
+        <v>407</v>
+      </c>
+      <c r="G55" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" t="s">
+        <v>408</v>
+      </c>
+      <c r="L55" t="s">
+        <v>254</v>
+      </c>
+      <c r="M55" t="s">
+        <v>409</v>
+      </c>
+      <c r="N55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>410</v>
+      </c>
+      <c r="F56" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" t="s">
+        <v>412</v>
+      </c>
+      <c r="L56" t="s">
+        <v>97</v>
+      </c>
+      <c r="M56" t="s">
+        <v>413</v>
+      </c>
+      <c r="N56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>414</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" t="s">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s">
+        <v>200</v>
+      </c>
+      <c r="M57" t="s">
+        <v>417</v>
+      </c>
+      <c r="N57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>418</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" t="s">
+        <v>420</v>
+      </c>
+      <c r="L58" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" t="s">
+        <v>421</v>
+      </c>
+      <c r="N58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>422</v>
+      </c>
+      <c r="F59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" t="s">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M59" t="s">
+        <v>425</v>
+      </c>
+      <c r="N59" t="s">
+        <v>206</v>
+      </c>
+      <c r="O59" t="s">
+        <v>426</v>
+      </c>
+      <c r="P59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>427</v>
+      </c>
+      <c r="F60" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" t="s">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s">
+        <v>200</v>
+      </c>
+      <c r="M60" t="s">
+        <v>430</v>
+      </c>
+      <c r="N60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>431</v>
+      </c>
+      <c r="F61" t="s">
+        <v>432</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" t="s">
+        <v>433</v>
+      </c>
+      <c r="L61" t="s">
+        <v>97</v>
+      </c>
+      <c r="M61" t="s">
+        <v>434</v>
+      </c>
+      <c r="N61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>435</v>
+      </c>
+      <c r="F62" t="s">
+        <v>436</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" t="s">
+        <v>437</v>
+      </c>
+      <c r="L62" t="s">
+        <v>112</v>
+      </c>
+      <c r="M62" t="s">
+        <v>438</v>
+      </c>
+      <c r="N62" t="s">
+        <v>439</v>
+      </c>
+      <c r="O62" t="s">
+        <v>440</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>441</v>
+      </c>
+      <c r="R62" t="s">
+        <v>200</v>
+      </c>
+      <c r="S62" t="s">
+        <v>442</v>
+      </c>
+      <c r="T62" t="s">
+        <v>67</v>
+      </c>
+      <c r="U62" t="s">
+        <v>443</v>
+      </c>
+      <c r="V62" t="s">
+        <v>206</v>
+      </c>
+      <c r="W62" t="s">
+        <v>444</v>
+      </c>
+      <c r="X62" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>450</v>
+      </c>
+      <c r="F63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G63" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" t="s">
+        <v>452</v>
+      </c>
+      <c r="L63" t="s">
+        <v>254</v>
+      </c>
+      <c r="M63" t="s">
+        <v>453</v>
+      </c>
+      <c r="N63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" t="s">
+        <v>454</v>
+      </c>
+      <c r="F64" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s">
+        <v>97</v>
+      </c>
+      <c r="M64" t="s">
+        <v>457</v>
+      </c>
+      <c r="N64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>458</v>
+      </c>
+      <c r="F65" t="s">
+        <v>459</v>
+      </c>
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" t="s">
+        <v>460</v>
+      </c>
+      <c r="L65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" t="s">
+        <v>461</v>
+      </c>
+      <c r="N65" t="s">
+        <v>97</v>
+      </c>
+      <c r="O65" t="s">
+        <v>462</v>
+      </c>
+      <c r="P65" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>463</v>
+      </c>
+      <c r="R65" t="s">
+        <v>99</v>
+      </c>
+      <c r="S65" t="s">
+        <v>464</v>
+      </c>
+      <c r="T65" t="s">
+        <v>122</v>
+      </c>
+      <c r="U65" t="s">
+        <v>465</v>
+      </c>
+      <c r="V65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>466</v>
+      </c>
+      <c r="F66" t="s">
+        <v>467</v>
+      </c>
+      <c r="G66" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" t="s">
+        <v>468</v>
+      </c>
+      <c r="L66" t="s">
+        <v>198</v>
+      </c>
+      <c r="M66" t="s">
+        <v>469</v>
+      </c>
+      <c r="N66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O66" t="s">
+        <v>470</v>
+      </c>
+      <c r="P66" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>471</v>
+      </c>
+      <c r="R66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" t="s">
+        <v>472</v>
+      </c>
+      <c r="F67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67" t="s">
+        <v>474</v>
+      </c>
+      <c r="L67" t="s">
+        <v>122</v>
+      </c>
+      <c r="M67" t="s">
+        <v>475</v>
+      </c>
+      <c r="N67" t="s">
+        <v>63</v>
+      </c>
+      <c r="O67" t="s">
+        <v>476</v>
+      </c>
+      <c r="P67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>477</v>
+      </c>
+      <c r="F68" t="s">
+        <v>478</v>
+      </c>
+      <c r="G68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" t="s">
+        <v>55</v>
+      </c>
+      <c r="K68" t="s">
+        <v>479</v>
+      </c>
+      <c r="L68" t="s">
+        <v>97</v>
+      </c>
+      <c r="M68" t="s">
+        <v>480</v>
+      </c>
+      <c r="N68" t="s">
+        <v>292</v>
+      </c>
+      <c r="O68" t="s">
+        <v>481</v>
+      </c>
+      <c r="P68" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>482</v>
+      </c>
+      <c r="R68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" t="s">
+        <v>485</v>
+      </c>
+      <c r="L69" t="s">
+        <v>73</v>
+      </c>
+      <c r="M69" t="s">
+        <v>486</v>
+      </c>
+      <c r="N69" t="s">
+        <v>67</v>
+      </c>
+      <c r="O69" t="s">
+        <v>487</v>
+      </c>
+      <c r="P69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>488</v>
+      </c>
+      <c r="R69" t="s">
+        <v>395</v>
+      </c>
+      <c r="S69" t="s">
+        <v>489</v>
+      </c>
+      <c r="T69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" t="s">
+        <v>490</v>
+      </c>
+      <c r="F70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" t="s">
+        <v>57</v>
+      </c>
+      <c r="J70" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70" t="s">
+        <v>492</v>
+      </c>
+      <c r="L70" t="s">
+        <v>206</v>
+      </c>
+      <c r="M70" t="s">
+        <v>493</v>
+      </c>
+      <c r="N70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" t="s">
+        <v>494</v>
+      </c>
+      <c r="F71" t="s">
+        <v>495</v>
+      </c>
+      <c r="G71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" t="s">
+        <v>57</v>
+      </c>
+      <c r="J71" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71" t="s">
+        <v>496</v>
+      </c>
+      <c r="L71" t="s">
+        <v>154</v>
+      </c>
+      <c r="M71" t="s">
+        <v>497</v>
+      </c>
+      <c r="N71" t="s">
+        <v>97</v>
+      </c>
+      <c r="O71" t="s">
+        <v>498</v>
+      </c>
+      <c r="P71" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>499</v>
+      </c>
+      <c r="R71" t="s">
+        <v>280</v>
+      </c>
+      <c r="S71" t="s">
+        <v>500</v>
+      </c>
+      <c r="T71" t="s">
+        <v>292</v>
+      </c>
+      <c r="U71" t="s">
+        <v>501</v>
+      </c>
+      <c r="V71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F72" t="s">
+        <v>503</v>
+      </c>
+      <c r="G72" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" t="s">
+        <v>55</v>
+      </c>
+      <c r="K72" t="s">
+        <v>504</v>
+      </c>
+      <c r="L72" t="s">
+        <v>200</v>
+      </c>
+      <c r="M72" t="s">
+        <v>505</v>
+      </c>
+      <c r="N72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>506</v>
+      </c>
+      <c r="F73" t="s">
+        <v>507</v>
+      </c>
+      <c r="G73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" t="s">
+        <v>55</v>
+      </c>
+      <c r="K73" t="s">
+        <v>508</v>
+      </c>
+      <c r="L73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M73" t="s">
+        <v>509</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+      <c r="O73" t="s">
+        <v>510</v>
+      </c>
+      <c r="P73" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>511</v>
+      </c>
+      <c r="R73" t="s">
+        <v>67</v>
+      </c>
+      <c r="S73" t="s">
+        <v>512</v>
+      </c>
+      <c r="T73" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="s">
+        <v>514</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+      <c r="G74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" t="s">
+        <v>55</v>
+      </c>
+      <c r="K74" t="s">
+        <v>516</v>
+      </c>
+      <c r="L74" t="s">
+        <v>97</v>
+      </c>
+      <c r="M74" t="s">
+        <v>517</v>
+      </c>
+      <c r="N74" t="s">
+        <v>518</v>
+      </c>
+      <c r="O74" t="s">
+        <v>519</v>
+      </c>
+      <c r="P74" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>520</v>
+      </c>
+      <c r="R74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" t="s">
+        <v>521</v>
+      </c>
+      <c r="F75" t="s">
+        <v>522</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" t="s">
+        <v>523</v>
+      </c>
+      <c r="L75" t="s">
+        <v>213</v>
+      </c>
+      <c r="M75" t="s">
+        <v>524</v>
+      </c>
+      <c r="N75" t="s">
+        <v>85</v>
+      </c>
+      <c r="O75" t="s">
+        <v>525</v>
+      </c>
+      <c r="P75" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>526</v>
+      </c>
+      <c r="R75" t="s">
+        <v>112</v>
+      </c>
+      <c r="S75" t="s">
+        <v>527</v>
+      </c>
+      <c r="T75" t="s">
+        <v>206</v>
+      </c>
+      <c r="U75" t="s">
+        <v>528</v>
+      </c>
+      <c r="V75" t="s">
+        <v>89</v>
+      </c>
+      <c r="W75" t="s">
+        <v>529</v>
+      </c>
+      <c r="X75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" t="s">
+        <v>530</v>
+      </c>
+      <c r="F76" t="s">
+        <v>531</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J76" t="s">
+        <v>55</v>
+      </c>
+      <c r="K76" t="s">
+        <v>532</v>
+      </c>
+      <c r="L76" t="s">
+        <v>85</v>
+      </c>
+      <c r="M76" t="s">
+        <v>533</v>
+      </c>
+      <c r="N76" t="s">
+        <v>119</v>
+      </c>
+      <c r="O76" t="s">
+        <v>534</v>
+      </c>
+      <c r="P76" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>535</v>
+      </c>
+      <c r="R76" t="s">
+        <v>63</v>
+      </c>
+      <c r="S76" t="s">
+        <v>536</v>
+      </c>
+      <c r="T76" t="s">
+        <v>97</v>
+      </c>
+      <c r="U76" t="s">
+        <v>537</v>
+      </c>
+      <c r="V76" t="s">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s">
+        <v>538</v>
+      </c>
+      <c r="X76" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" t="s">
+        <v>542</v>
+      </c>
+      <c r="F77" t="s">
+        <v>543</v>
+      </c>
+      <c r="G77" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s">
+        <v>57</v>
+      </c>
+      <c r="J77" t="s">
+        <v>55</v>
+      </c>
+      <c r="K77" t="s">
+        <v>544</v>
+      </c>
+      <c r="L77" t="s">
+        <v>97</v>
+      </c>
+      <c r="M77" t="s">
+        <v>545</v>
+      </c>
+      <c r="N77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" t="s">
+        <v>546</v>
+      </c>
+      <c r="F78" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" t="s">
+        <v>55</v>
+      </c>
+      <c r="K78" t="s">
+        <v>548</v>
+      </c>
+      <c r="L78" t="s">
+        <v>97</v>
+      </c>
+      <c r="M78" t="s">
+        <v>549</v>
+      </c>
+      <c r="N78" t="s">
+        <v>154</v>
+      </c>
+      <c r="O78" t="s">
+        <v>550</v>
+      </c>
+      <c r="P78" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>551</v>
+      </c>
+      <c r="R78" t="s">
+        <v>63</v>
+      </c>
+      <c r="S78" t="s">
+        <v>552</v>
+      </c>
+      <c r="T78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" t="s">
+        <v>553</v>
+      </c>
+      <c r="F79" t="s">
+        <v>554</v>
+      </c>
+      <c r="G79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" t="s">
+        <v>57</v>
+      </c>
+      <c r="J79" t="s">
+        <v>55</v>
+      </c>
+      <c r="K79" t="s">
+        <v>555</v>
+      </c>
+      <c r="L79" t="s">
+        <v>63</v>
+      </c>
+      <c r="M79" t="s">
+        <v>556</v>
+      </c>
+      <c r="N79" t="s">
+        <v>122</v>
+      </c>
+      <c r="O79" t="s">
+        <v>557</v>
+      </c>
+      <c r="P79" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>558</v>
+      </c>
+      <c r="R79" t="s">
+        <v>67</v>
+      </c>
+      <c r="S79" t="s">
+        <v>559</v>
+      </c>
+      <c r="T79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>2.0</v>
       </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" t="s">
-        <v>270</v>
-      </c>
-      <c r="L35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" t="s">
-        <v>271</v>
-      </c>
-      <c r="N35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O35" t="s">
-        <v>272</v>
-      </c>
-      <c r="P35" t="s">
-        <v>66</v>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" t="s">
+        <v>560</v>
+      </c>
+      <c r="F80" t="s">
+        <v>561</v>
+      </c>
+      <c r="G80" t="s">
+        <v>358</v>
+      </c>
+      <c r="H80" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" t="s">
+        <v>55</v>
+      </c>
+      <c r="K80" t="s">
+        <v>562</v>
+      </c>
+      <c r="L80" t="s">
+        <v>63</v>
+      </c>
+      <c r="M80" t="s">
+        <v>563</v>
+      </c>
+      <c r="N80" t="s">
+        <v>63</v>
+      </c>
+      <c r="O80" t="s">
+        <v>564</v>
+      </c>
+      <c r="P80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" t="s">
+        <v>565</v>
+      </c>
+      <c r="F81" t="s">
+        <v>566</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" t="s">
+        <v>55</v>
+      </c>
+      <c r="K81" t="s">
+        <v>567</v>
+      </c>
+      <c r="L81" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" t="s">
+        <v>568</v>
+      </c>
+      <c r="N81" t="s">
+        <v>63</v>
+      </c>
+      <c r="O81" t="s">
+        <v>569</v>
+      </c>
+      <c r="P81" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>570</v>
+      </c>
+      <c r="R81" t="s">
+        <v>292</v>
+      </c>
+      <c r="S81" t="s">
+        <v>571</v>
+      </c>
+      <c r="T81" t="s">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s">
+        <v>572</v>
+      </c>
+      <c r="V81" t="s">
+        <v>292</v>
+      </c>
+      <c r="W81" t="s">
+        <v>573</v>
+      </c>
+      <c r="X81" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>578</v>
+      </c>
+      <c r="F82" t="s">
+        <v>579</v>
+      </c>
+      <c r="G82" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82" t="s">
+        <v>580</v>
+      </c>
+      <c r="L82" t="s">
+        <v>206</v>
+      </c>
+      <c r="M82" t="s">
+        <v>581</v>
+      </c>
+      <c r="N82" t="s">
+        <v>206</v>
+      </c>
+      <c r="O82" t="s">
+        <v>582</v>
+      </c>
+      <c r="P82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" t="s">
+        <v>583</v>
+      </c>
+      <c r="F83" t="s">
+        <v>584</v>
+      </c>
+      <c r="G83" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" t="s">
+        <v>57</v>
+      </c>
+      <c r="J83" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83" t="s">
+        <v>585</v>
+      </c>
+      <c r="L83" t="s">
+        <v>85</v>
+      </c>
+      <c r="M83" t="s">
+        <v>586</v>
+      </c>
+      <c r="N83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" t="s">
+        <v>587</v>
+      </c>
+      <c r="F84" t="s">
+        <v>588</v>
+      </c>
+      <c r="G84" t="s">
+        <v>358</v>
+      </c>
+      <c r="H84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" t="s">
+        <v>55</v>
+      </c>
+      <c r="K84" t="s">
+        <v>589</v>
+      </c>
+      <c r="L84" t="s">
+        <v>63</v>
+      </c>
+      <c r="M84" t="s">
+        <v>590</v>
+      </c>
+      <c r="N84" t="s">
+        <v>122</v>
+      </c>
+      <c r="O84" t="s">
+        <v>591</v>
+      </c>
+      <c r="P84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>592</v>
+      </c>
+      <c r="F85" t="s">
+        <v>593</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" t="s">
+        <v>55</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>85</v>
+      </c>
+      <c r="M85" t="s">
+        <v>595</v>
+      </c>
+      <c r="N85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>596</v>
+      </c>
+      <c r="F86" t="s">
+        <v>597</v>
+      </c>
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>55</v>
+      </c>
+      <c r="K86" t="s">
+        <v>598</v>
+      </c>
+      <c r="L86" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" t="s">
+        <v>599</v>
+      </c>
+      <c r="N86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" t="s">
+        <v>600</v>
+      </c>
+      <c r="F87" t="s">
+        <v>601</v>
+      </c>
+      <c r="G87" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" t="s">
+        <v>55</v>
+      </c>
+      <c r="K87" t="s">
+        <v>602</v>
+      </c>
+      <c r="L87" t="s">
+        <v>73</v>
+      </c>
+      <c r="M87" t="s">
+        <v>603</v>
+      </c>
+      <c r="N87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
+        <v>604</v>
+      </c>
+      <c r="F88" t="s">
+        <v>605</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" t="s">
+        <v>55</v>
+      </c>
+      <c r="K88" t="s">
+        <v>606</v>
+      </c>
+      <c r="L88" t="s">
+        <v>200</v>
+      </c>
+      <c r="M88" t="s">
+        <v>607</v>
+      </c>
+      <c r="N88" t="s">
+        <v>73</v>
+      </c>
+      <c r="O88" t="s">
+        <v>608</v>
+      </c>
+      <c r="P88" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>609</v>
+      </c>
+      <c r="R88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" t="s">
+        <v>610</v>
+      </c>
+      <c r="F89" t="s">
+        <v>611</v>
+      </c>
+      <c r="G89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89" t="s">
+        <v>612</v>
+      </c>
+      <c r="L89" t="s">
+        <v>97</v>
+      </c>
+      <c r="M89" t="s">
+        <v>613</v>
+      </c>
+      <c r="N89" t="s">
+        <v>154</v>
+      </c>
+      <c r="O89" t="s">
+        <v>614</v>
+      </c>
+      <c r="P89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" t="s">
+        <v>615</v>
+      </c>
+      <c r="F90" t="s">
+        <v>616</v>
+      </c>
+      <c r="G90" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" t="s">
+        <v>55</v>
+      </c>
+      <c r="K90" t="s">
+        <v>617</v>
+      </c>
+      <c r="L90" t="s">
+        <v>198</v>
+      </c>
+      <c r="M90" t="s">
+        <v>618</v>
+      </c>
+      <c r="N90" t="s">
+        <v>619</v>
+      </c>
+      <c r="O90" t="s">
+        <v>620</v>
+      </c>
+      <c r="P90" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>621</v>
+      </c>
+      <c r="R90" t="s">
+        <v>200</v>
+      </c>
+      <c r="S90" t="s">
+        <v>622</v>
+      </c>
+      <c r="T90" t="s">
+        <v>234</v>
+      </c>
+      <c r="U90" t="s">
+        <v>623</v>
+      </c>
+      <c r="V90" t="s">
+        <v>198</v>
+      </c>
+      <c r="W90" t="s">
+        <v>624</v>
+      </c>
+      <c r="X90" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>628</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>630</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>632</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>633</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>634</v>
+      </c>
+      <c r="F91" t="s">
+        <v>635</v>
+      </c>
+      <c r="G91" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91" t="s">
+        <v>55</v>
+      </c>
+      <c r="K91" t="s">
+        <v>636</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
+        <v>637</v>
+      </c>
+      <c r="N91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" t="s">
+        <v>638</v>
+      </c>
+      <c r="F92" t="s">
+        <v>639</v>
+      </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" t="s">
+        <v>57</v>
+      </c>
+      <c r="J92" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92" t="s">
+        <v>640</v>
+      </c>
+      <c r="L92" t="s">
+        <v>206</v>
+      </c>
+      <c r="M92" t="s">
+        <v>641</v>
+      </c>
+      <c r="N92" t="s">
+        <v>206</v>
+      </c>
+      <c r="O92" t="s">
+        <v>642</v>
+      </c>
+      <c r="P92" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>643</v>
+      </c>
+      <c r="R92" t="s">
+        <v>73</v>
+      </c>
+      <c r="S92" t="s">
+        <v>644</v>
+      </c>
+      <c r="T92" t="s">
+        <v>65</v>
+      </c>
+      <c r="U92" t="s">
+        <v>645</v>
+      </c>
+      <c r="V92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" t="s">
+        <v>646</v>
+      </c>
+      <c r="F93" t="s">
+        <v>647</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" t="s">
+        <v>55</v>
+      </c>
+      <c r="K93" t="s">
+        <v>648</v>
+      </c>
+      <c r="L93" t="s">
+        <v>97</v>
+      </c>
+      <c r="M93" t="s">
+        <v>649</v>
+      </c>
+      <c r="N93" t="s">
+        <v>76</v>
+      </c>
+      <c r="O93" t="s">
+        <v>650</v>
+      </c>
+      <c r="P93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" t="s">
+        <v>651</v>
+      </c>
+      <c r="F94" t="s">
+        <v>652</v>
+      </c>
+      <c r="G94" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" t="s">
+        <v>55</v>
+      </c>
+      <c r="K94" t="s">
+        <v>653</v>
+      </c>
+      <c r="L94" t="s">
+        <v>198</v>
+      </c>
+      <c r="M94" t="s">
+        <v>654</v>
+      </c>
+      <c r="N94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>655</v>
+      </c>
+      <c r="F95" t="s">
+        <v>656</v>
+      </c>
+      <c r="G95" t="s">
+        <v>320</v>
+      </c>
+      <c r="H95" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" t="s">
+        <v>57</v>
+      </c>
+      <c r="J95" t="s">
+        <v>55</v>
+      </c>
+      <c r="K95" t="s">
+        <v>657</v>
+      </c>
+      <c r="L95" t="s">
+        <v>122</v>
+      </c>
+      <c r="M95" t="s">
+        <v>658</v>
+      </c>
+      <c r="N95" t="s">
+        <v>63</v>
+      </c>
+      <c r="O95" t="s">
+        <v>659</v>
+      </c>
+      <c r="P95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s">
+        <v>660</v>
+      </c>
+      <c r="F96" t="s">
+        <v>661</v>
+      </c>
+      <c r="G96" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96" t="s">
+        <v>662</v>
+      </c>
+      <c r="L96" t="s">
+        <v>206</v>
+      </c>
+      <c r="M96" t="s">
+        <v>663</v>
+      </c>
+      <c r="N96" t="s">
+        <v>85</v>
+      </c>
+      <c r="O96" t="s">
+        <v>664</v>
+      </c>
+      <c r="P96" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>665</v>
+      </c>
+      <c r="R96" t="s">
+        <v>59</v>
+      </c>
+      <c r="S96" t="s">
+        <v>666</v>
+      </c>
+      <c r="T96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" t="s">
+        <v>667</v>
+      </c>
+      <c r="F97" t="s">
+        <v>668</v>
+      </c>
+      <c r="G97" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" t="s">
+        <v>55</v>
+      </c>
+      <c r="K97" t="s">
+        <v>669</v>
+      </c>
+      <c r="L97" t="s">
+        <v>85</v>
+      </c>
+      <c r="M97" t="s">
+        <v>670</v>
+      </c>
+      <c r="N97" t="s">
+        <v>63</v>
+      </c>
+      <c r="O97" t="s">
+        <v>671</v>
+      </c>
+      <c r="P97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s">
+        <v>672</v>
+      </c>
+      <c r="F98" t="s">
+        <v>673</v>
+      </c>
+      <c r="G98" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" t="s">
+        <v>674</v>
+      </c>
+      <c r="L98" t="s">
+        <v>99</v>
+      </c>
+      <c r="M98" t="s">
+        <v>675</v>
+      </c>
+      <c r="N98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" t="s">
+        <v>676</v>
+      </c>
+      <c r="F99" t="s">
+        <v>677</v>
+      </c>
+      <c r="G99" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K99" t="s">
+        <v>678</v>
+      </c>
+      <c r="L99" t="s">
+        <v>112</v>
+      </c>
+      <c r="M99" t="s">
+        <v>679</v>
+      </c>
+      <c r="N99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" t="s">
+        <v>680</v>
+      </c>
+      <c r="F100" t="s">
+        <v>681</v>
+      </c>
+      <c r="G100" t="s">
+        <v>358</v>
+      </c>
+      <c r="H100" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J100" t="s">
+        <v>55</v>
+      </c>
+      <c r="K100" t="s">
+        <v>682</v>
+      </c>
+      <c r="L100" t="s">
+        <v>683</v>
+      </c>
+      <c r="M100" t="s">
+        <v>684</v>
+      </c>
+      <c r="N100" t="s">
+        <v>73</v>
+      </c>
+      <c r="O100" t="s">
+        <v>685</v>
+      </c>
+      <c r="P100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" t="s">
+        <v>686</v>
+      </c>
+      <c r="F101" t="s">
+        <v>687</v>
+      </c>
+      <c r="G101" t="s">
+        <v>320</v>
+      </c>
+      <c r="H101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" t="s">
+        <v>55</v>
+      </c>
+      <c r="K101" t="s">
+        <v>688</v>
+      </c>
+      <c r="L101" t="s">
+        <v>254</v>
+      </c>
+      <c r="M101" t="s">
+        <v>689</v>
+      </c>
+      <c r="N101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s">
+        <v>690</v>
+      </c>
+      <c r="F102" t="s">
+        <v>691</v>
+      </c>
+      <c r="G102" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" t="s">
+        <v>57</v>
+      </c>
+      <c r="J102" t="s">
+        <v>55</v>
+      </c>
+      <c r="K102" t="s">
+        <v>692</v>
+      </c>
+      <c r="L102" t="s">
+        <v>73</v>
+      </c>
+      <c r="M102" t="s">
+        <v>693</v>
+      </c>
+      <c r="N102" t="s">
+        <v>73</v>
+      </c>
+      <c r="O102" t="s">
+        <v>694</v>
+      </c>
+      <c r="P102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" t="s">
+        <v>695</v>
+      </c>
+      <c r="F103" t="s">
+        <v>696</v>
+      </c>
+      <c r="G103" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" t="s">
+        <v>56</v>
+      </c>
+      <c r="I103" t="s">
+        <v>57</v>
+      </c>
+      <c r="J103" t="s">
+        <v>55</v>
+      </c>
+      <c r="K103" t="s">
+        <v>697</v>
+      </c>
+      <c r="L103" t="s">
+        <v>112</v>
+      </c>
+      <c r="M103" t="s">
+        <v>698</v>
+      </c>
+      <c r="N103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" t="s">
+        <v>699</v>
+      </c>
+      <c r="F104" t="s">
+        <v>700</v>
+      </c>
+      <c r="G104" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" t="s">
+        <v>56</v>
+      </c>
+      <c r="I104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J104" t="s">
+        <v>55</v>
+      </c>
+      <c r="K104" t="s">
+        <v>701</v>
+      </c>
+      <c r="L104" t="s">
+        <v>97</v>
+      </c>
+      <c r="M104" t="s">
+        <v>702</v>
+      </c>
+      <c r="N104" t="s">
+        <v>122</v>
+      </c>
+      <c r="O104" t="s">
+        <v>703</v>
+      </c>
+      <c r="P104" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>704</v>
+      </c>
+      <c r="R104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" t="s">
+        <v>705</v>
+      </c>
+      <c r="F105" t="s">
+        <v>706</v>
+      </c>
+      <c r="G105" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" t="s">
+        <v>56</v>
+      </c>
+      <c r="I105" t="s">
+        <v>57</v>
+      </c>
+      <c r="J105" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105" t="s">
+        <v>707</v>
+      </c>
+      <c r="L105" t="s">
+        <v>67</v>
+      </c>
+      <c r="M105" t="s">
+        <v>708</v>
+      </c>
+      <c r="N105" t="s">
+        <v>206</v>
+      </c>
+      <c r="O105" t="s">
+        <v>709</v>
+      </c>
+      <c r="P105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" t="s">
+        <v>710</v>
+      </c>
+      <c r="F106" t="s">
+        <v>711</v>
+      </c>
+      <c r="G106" t="s">
+        <v>712</v>
+      </c>
+      <c r="H106" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" t="s">
+        <v>55</v>
+      </c>
+      <c r="K106" t="s">
+        <v>713</v>
+      </c>
+      <c r="L106" t="s">
+        <v>63</v>
+      </c>
+      <c r="M106" t="s">
+        <v>714</v>
+      </c>
+      <c r="N106" t="s">
+        <v>97</v>
+      </c>
+      <c r="O106" t="s">
+        <v>715</v>
+      </c>
+      <c r="P106" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>716</v>
+      </c>
+      <c r="R106" t="s">
+        <v>76</v>
+      </c>
+      <c r="S106" t="s">
+        <v>717</v>
+      </c>
+      <c r="T106" t="s">
+        <v>63</v>
+      </c>
+      <c r="U106" t="s">
+        <v>718</v>
+      </c>
+      <c r="V106" t="s">
+        <v>67</v>
+      </c>
+      <c r="W106" t="s">
+        <v>719</v>
+      </c>
+      <c r="X106" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" t="s">
+        <v>722</v>
+      </c>
+      <c r="F107" t="s">
+        <v>723</v>
+      </c>
+      <c r="G107" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J107" t="s">
+        <v>55</v>
+      </c>
+      <c r="K107" t="s">
+        <v>724</v>
+      </c>
+      <c r="L107" t="s">
+        <v>63</v>
+      </c>
+      <c r="M107" t="s">
+        <v>725</v>
+      </c>
+      <c r="N107" t="s">
+        <v>85</v>
+      </c>
+      <c r="O107" t="s">
+        <v>726</v>
+      </c>
+      <c r="P107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>727</v>
+      </c>
+      <c r="F108" t="s">
+        <v>728</v>
+      </c>
+      <c r="G108" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" t="s">
+        <v>56</v>
+      </c>
+      <c r="I108" t="s">
+        <v>57</v>
+      </c>
+      <c r="J108" t="s">
+        <v>55</v>
+      </c>
+      <c r="K108" t="s">
+        <v>729</v>
+      </c>
+      <c r="L108" t="s">
+        <v>73</v>
+      </c>
+      <c r="M108" t="s">
+        <v>730</v>
+      </c>
+      <c r="N108" t="s">
+        <v>67</v>
+      </c>
+      <c r="O108" t="s">
+        <v>731</v>
+      </c>
+      <c r="P108" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>732</v>
+      </c>
+      <c r="R108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" t="s">
+        <v>733</v>
+      </c>
+      <c r="F109" t="s">
+        <v>734</v>
+      </c>
+      <c r="G109" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" t="s">
+        <v>56</v>
+      </c>
+      <c r="I109" t="s">
+        <v>57</v>
+      </c>
+      <c r="J109" t="s">
+        <v>55</v>
+      </c>
+      <c r="K109" t="s">
+        <v>735</v>
+      </c>
+      <c r="L109" t="s">
+        <v>122</v>
+      </c>
+      <c r="M109" t="s">
+        <v>736</v>
+      </c>
+      <c r="N109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" t="s">
+        <v>737</v>
+      </c>
+      <c r="F110" t="s">
+        <v>738</v>
+      </c>
+      <c r="G110" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" t="s">
+        <v>57</v>
+      </c>
+      <c r="J110" t="s">
+        <v>55</v>
+      </c>
+      <c r="K110" t="s">
+        <v>739</v>
+      </c>
+      <c r="L110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M110" t="s">
+        <v>740</v>
+      </c>
+      <c r="N110" t="s">
+        <v>85</v>
+      </c>
+      <c r="O110" t="s">
+        <v>741</v>
+      </c>
+      <c r="P110" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>742</v>
+      </c>
+      <c r="R110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" t="s">
+        <v>743</v>
+      </c>
+      <c r="F111" t="s">
+        <v>744</v>
+      </c>
+      <c r="G111" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" t="s">
+        <v>57</v>
+      </c>
+      <c r="J111" t="s">
+        <v>55</v>
+      </c>
+      <c r="K111" t="s">
+        <v>745</v>
+      </c>
+      <c r="L111" t="s">
+        <v>85</v>
+      </c>
+      <c r="M111" t="s">
+        <v>746</v>
+      </c>
+      <c r="N111" t="s">
+        <v>539</v>
+      </c>
+      <c r="O111" t="s">
+        <v>747</v>
+      </c>
+      <c r="P111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" t="s">
+        <v>748</v>
+      </c>
+      <c r="F112" t="s">
+        <v>749</v>
+      </c>
+      <c r="G112" t="s">
+        <v>127</v>
+      </c>
+      <c r="H112" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" t="s">
+        <v>57</v>
+      </c>
+      <c r="J112" t="s">
+        <v>55</v>
+      </c>
+      <c r="K112" t="s">
+        <v>750</v>
+      </c>
+      <c r="L112" t="s">
+        <v>254</v>
+      </c>
+      <c r="M112" t="s">
+        <v>751</v>
+      </c>
+      <c r="N112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E113" t="s">
+        <v>752</v>
+      </c>
+      <c r="F113" t="s">
+        <v>753</v>
+      </c>
+      <c r="G113" t="s">
+        <v>52</v>
+      </c>
+      <c r="H113" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" t="s">
+        <v>57</v>
+      </c>
+      <c r="J113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113" t="s">
+        <v>754</v>
+      </c>
+      <c r="L113" t="s">
+        <v>85</v>
+      </c>
+      <c r="M113" t="s">
+        <v>755</v>
+      </c>
+      <c r="N113" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E114" t="s">
+        <v>756</v>
+      </c>
+      <c r="F114" t="s">
+        <v>757</v>
+      </c>
+      <c r="G114" t="s">
+        <v>55</v>
+      </c>
+      <c r="H114" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" t="s">
+        <v>57</v>
+      </c>
+      <c r="J114" t="s">
+        <v>55</v>
+      </c>
+      <c r="K114" t="s">
+        <v>758</v>
+      </c>
+      <c r="L114" t="s">
+        <v>73</v>
+      </c>
+      <c r="M114" t="s">
+        <v>759</v>
+      </c>
+      <c r="N114" t="s">
+        <v>67</v>
+      </c>
+      <c r="O114" t="s">
+        <v>760</v>
+      </c>
+      <c r="P114" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" t="s">
+        <v>761</v>
+      </c>
+      <c r="F115" t="s">
+        <v>762</v>
+      </c>
+      <c r="G115" t="s">
+        <v>358</v>
+      </c>
+      <c r="H115" t="s">
+        <v>56</v>
+      </c>
+      <c r="I115" t="s">
+        <v>57</v>
+      </c>
+      <c r="J115" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115" t="s">
+        <v>763</v>
+      </c>
+      <c r="L115" t="s">
+        <v>63</v>
+      </c>
+      <c r="M115" t="s">
+        <v>764</v>
+      </c>
+      <c r="N115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" t="s">
+        <v>765</v>
+      </c>
+      <c r="F116" t="s">
+        <v>766</v>
+      </c>
+      <c r="G116" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" t="s">
+        <v>56</v>
+      </c>
+      <c r="I116" t="s">
+        <v>57</v>
+      </c>
+      <c r="J116" t="s">
+        <v>55</v>
+      </c>
+      <c r="K116" t="s">
+        <v>767</v>
+      </c>
+      <c r="L116" t="s">
+        <v>99</v>
+      </c>
+      <c r="M116" t="s">
+        <v>768</v>
+      </c>
+      <c r="N116" t="s">
+        <v>122</v>
+      </c>
+      <c r="O116" t="s">
+        <v>769</v>
+      </c>
+      <c r="P116" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>770</v>
+      </c>
+      <c r="R116" t="s">
+        <v>73</v>
+      </c>
+      <c r="S116" t="s">
+        <v>771</v>
+      </c>
+      <c r="T116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" t="s">
+        <v>772</v>
+      </c>
+      <c r="F117" t="s">
+        <v>773</v>
+      </c>
+      <c r="G117" t="s">
+        <v>52</v>
+      </c>
+      <c r="H117" t="s">
+        <v>56</v>
+      </c>
+      <c r="I117" t="s">
+        <v>57</v>
+      </c>
+      <c r="J117" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117" t="s">
+        <v>774</v>
+      </c>
+      <c r="L117" t="s">
+        <v>112</v>
+      </c>
+      <c r="M117" t="s">
+        <v>775</v>
+      </c>
+      <c r="N117" t="s">
+        <v>206</v>
+      </c>
+      <c r="O117" t="s">
+        <v>776</v>
+      </c>
+      <c r="P117" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>777</v>
+      </c>
+      <c r="R117" t="s">
+        <v>69</v>
+      </c>
+      <c r="S117" t="s">
+        <v>778</v>
+      </c>
+      <c r="T117" t="s">
+        <v>65</v>
+      </c>
+      <c r="U117" t="s">
+        <v>779</v>
+      </c>
+      <c r="V117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" t="s">
+        <v>780</v>
+      </c>
+      <c r="F118" t="s">
+        <v>781</v>
+      </c>
+      <c r="G118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" t="s">
+        <v>57</v>
+      </c>
+      <c r="J118" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118" t="s">
+        <v>782</v>
+      </c>
+      <c r="L118" t="s">
+        <v>85</v>
+      </c>
+      <c r="M118" t="s">
+        <v>783</v>
+      </c>
+      <c r="N118" t="s">
+        <v>165</v>
+      </c>
+      <c r="O118" t="s">
+        <v>784</v>
+      </c>
+      <c r="P118" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>785</v>
+      </c>
+      <c r="R118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" t="s">
+        <v>786</v>
+      </c>
+      <c r="F119" t="s">
+        <v>787</v>
+      </c>
+      <c r="G119" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" t="s">
+        <v>56</v>
+      </c>
+      <c r="I119" t="s">
+        <v>57</v>
+      </c>
+      <c r="J119" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" t="s">
+        <v>788</v>
+      </c>
+      <c r="L119" t="s">
+        <v>85</v>
+      </c>
+      <c r="M119" t="s">
+        <v>789</v>
+      </c>
+      <c r="N119" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
